--- a/SQL Excel/medium2_sql.xlsx
+++ b/SQL Excel/medium2_sql.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanuele.iaccarino\Downloads\Json_Pipeline_associare_tabelle_Source_Destination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanuele.iaccarino\Downloads\Json_Pipeline_associare_tabelle_Source_Destination\SQL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4242E74-69EC-4E5D-B4B5-EA22F591AA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3B91B2-7381-4708-AA65-B21BB6C65D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,16 +28,16 @@
     <t>target_column</t>
   </si>
   <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VA_A1_HD_ARCHIV_ANAGRA_TITOLI_ON.COD_ABI</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VA_A1_HD_ARCHIV_ANAGRA_TITOLI_ON.NUM_ISTITUTO</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VA_A1_HD_ARCHIV_ANAGRA_TITOLI_ON.COD_TITOLO</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_A1777A#.#$BQ_DSNAME_A1777A#.VA_A1_HD_ARCHIV_ANAGRA_TITOLI_ON.COD_ENTITA</t>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VA_A1_HD_ARCHIV_ANAGRA_TITOLI_ON.COD_ABI</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VA_A1_HD_ARCHIV_ANAGRA_TITOLI_ON.NUM_ISTITUTO</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VA_A1_HD_ARCHIV_ANAGRA_TITOLI_ON.COD_TITOLO</t>
+  </si>
+  <si>
+    <t>prj-isp-a1777-appl-svil-001.A1777W.VA_A1_HD_ARCHIV_ANAGRA_TITOLI_ON.COD_ENTITA</t>
   </si>
   <si>
     <t>cod_entita</t>
@@ -411,12 +411,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="89.1796875" customWidth="1"/>
+    <col min="1" max="1" width="79.81640625" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
